--- a/src/main/resources/Test data.xlsx
+++ b/src/main/resources/Test data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b79dcbbdafb1ef0/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ApplicationTest-main\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC1048F5B9DC7A2A5BDE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3F1DE20-181A-4629-8A87-84C5A09D2381}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23278EF7-FB70-46ED-8810-785D0DBB2655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Highest Qualification</t>
-  </si>
-  <si>
-    <t>Year of pass out</t>
-  </si>
-  <si>
-    <t>Interview location</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time slot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Asish</t>
   </si>
@@ -151,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,136 +410,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>542525245</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>536356326</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>542525245</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>2022</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>357327483</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3">
-        <v>536356326</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>357327483</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2021</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9CCC6EF0-366C-469D-82B8-23D80C014A95}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{59106220-DBA8-477B-877B-FDABCDC69427}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4E73A835-249C-43B1-A2D8-F58C983665DD}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{9CCC6EF0-366C-469D-82B8-23D80C014A95}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{59106220-DBA8-477B-877B-FDABCDC69427}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{4E73A835-249C-43B1-A2D8-F58C983665DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
